--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\Spring 2020\Psy Independent Study\PsychoPy Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\Spring 2020\Psy Independent Study\Linguistics-Mandarin-English-Priming-Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9C8351-34ED-479E-BDD1-888D8B32DD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F005B9BC-F909-4678-92BD-FCF05E1ACB9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Eye</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,34 @@
   </si>
   <si>
     <t>precord3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gsd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fgh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘_close_English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怕e_English</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -433,8 +461,11 @@
       <c r="G1" t="s">
         <v>13</v>
       </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -455,6 +486,35 @@
       </c>
       <c r="G2" t="s">
         <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\Spring 2020\Psy Independent Study\Linguistics-Mandarin-English-Priming-Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F005B9BC-F909-4678-92BD-FCF05E1ACB9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C855920-105A-4346-BF70-70CF8A5982FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怕e_English</t>
+    <t>怕_close_English</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +434,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\Spring 2020\Psy Independent Study\Linguistics-Mandarin-English-Priming-Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C855920-105A-4346-BF70-70CF8A5982FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B694C9F-DB5B-433B-AAE3-A5BFDBB9769E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43280" yWindow="4510" windowWidth="17740" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="235">
   <si>
     <t>Eye</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,27 +85,883 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gsd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fgh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘_close_English</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怕_close_English</t>
+    <t>盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pet.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mud.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fun.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bay.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ton.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pin.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gum.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘_close_English_vowel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘_close_Mandarin_vowel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘_far_Mandarin_vowel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘_far_English_vowel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹_close_English_vowel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹_far_English_vowel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹_close_Mandarin_vowel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹_far_Mandarin_vowel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sea.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ant.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bun.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬_close_Mandarin_vowel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬_close_English_vowel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owl.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mat.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lip.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬_far_English_vowel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬_far_Mandarin_vowel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dam.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单_close_English_vowel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rat.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ore.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单_far_English_vowel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单_close_Mandarin_vowel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单_far_Mandarin_vowel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Era</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Era.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pea.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僻_close_Mandarin_consonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jet.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hip.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僻_far_Mandarin_consonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僻_close_English_consonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僻_far_English_consonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fog.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eve.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bee.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币_close_English_consonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pen.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dye.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lap.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币_far_English_consonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币_close_Mandarin_consonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币_far_Mandarin_consonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paw.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bye.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>败_close_English_consonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opt.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ash.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>败_far_English_consonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>败_close_Mandarin_consonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>败_far_Mandarin_consonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bid.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pie.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派_close_English_consonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jaw.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派_far_English_consonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派_close_Mandarin_consonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派_far_Mandarin_consonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hum.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lan4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dao4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bai2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xun4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xian2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ban4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ni2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chang4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bi3.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chun2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duo3.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Che3.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tan2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guan3.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dan4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu1.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ying3.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gui1.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jue2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhen4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiu4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xi1.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Song4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>La4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peng2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luo4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shi4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lei3.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pai2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gan3.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bai4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu1.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suan1.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pi3.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang3.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quan2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Que1.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Han2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can1.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tan1.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ning3.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shang1.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wei2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lu4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chu4.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhan1.wav</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -467,57 +1323,840 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" t="s">
+        <v>214</v>
+      </c>
+      <c r="F27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>216</v>
+      </c>
+      <c r="H27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" t="s">
+        <v>222</v>
+      </c>
+      <c r="H29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" t="s">
+        <v>223</v>
+      </c>
+      <c r="F30" t="s">
+        <v>224</v>
+      </c>
+      <c r="G30" t="s">
+        <v>225</v>
+      </c>
+      <c r="H30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" t="s">
+        <v>228</v>
+      </c>
+      <c r="H31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
         <v>20</v>
       </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" t="s">
+        <v>231</v>
+      </c>
+      <c r="H32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" t="s">
+        <v>233</v>
+      </c>
+      <c r="G33" t="s">
+        <v>234</v>
+      </c>
+      <c r="H33" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H33">
+    <sortCondition ref="C3"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
